--- a/Documents/Daily/Extra pay & Other.xlsx
+++ b/Documents/Daily/Extra pay & Other.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://terraindustrial-my.sharepoint.com/personal/jess_beattie_terracat_co_nz/Documents/Daily/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{6BB53494-B128-455C-9AC4-FFAB693D0468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E050DB-F497-4FD6-A09F-CC1045F6F6D2}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="8_{6BB53494-B128-455C-9AC4-FFAB693D0468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CCBF02C-5FF1-47A2-9BC4-4661E74D8389}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{43CA87B3-B19D-47B4-A107-8716B7848BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Overtime" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>Date:</t>
   </si>
@@ -291,20 +292,68 @@
     <t>Sick all day - have applied for the sick leave</t>
   </si>
   <si>
-    <t>To be paid in April</t>
-  </si>
-  <si>
-    <t>To be paid in May</t>
-  </si>
-  <si>
     <t>Loaded XPO's</t>
+  </si>
+  <si>
+    <t>11/04/2022 - 18/04/2022</t>
+  </si>
+  <si>
+    <t>On call for Easter week</t>
+  </si>
+  <si>
+    <t>9/05/2022-15/05/2022</t>
+  </si>
+  <si>
+    <t>Time Debt</t>
+  </si>
+  <si>
+    <t>12:45pm-3.30pm</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>2 hours 45 mins</t>
+  </si>
+  <si>
+    <t>Hospital appointment and covid booster</t>
+  </si>
+  <si>
+    <t>1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>Stayed late to make up time</t>
+  </si>
+  <si>
+    <t>XPOs</t>
+  </si>
+  <si>
+    <t>Paid in April</t>
+  </si>
+  <si>
+    <t>Paid in May</t>
+  </si>
+  <si>
+    <t>To be paid in July</t>
+  </si>
+  <si>
+    <t>13/06/2022-19/06/2022</t>
+  </si>
+  <si>
+    <t>Paid in June</t>
+  </si>
+  <si>
+    <t>2pm-2.45pm</t>
+  </si>
+  <si>
+    <t>Sick all day- leave applied for</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +390,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -454,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -502,28 +558,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD140565-7D18-4E6A-9E2D-96F3EC3BC69F}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -865,12 +922,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -888,7 +945,7 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -902,7 +959,7 @@
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -914,7 +971,7 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -924,7 +981,7 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -942,7 +999,7 @@
       <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -956,7 +1013,7 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -968,7 +1025,7 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -978,7 +1035,7 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -988,7 +1045,7 @@
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -998,7 +1055,7 @@
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -1010,7 +1067,7 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1042,7 +1099,7 @@
       <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1054,7 +1111,7 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -1066,7 +1123,7 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1076,7 +1133,7 @@
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -1088,7 +1145,7 @@
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -1106,7 +1163,7 @@
       <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1118,7 +1175,7 @@
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -1136,7 +1193,7 @@
       <c r="C26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1148,7 +1205,7 @@
       <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -1158,7 +1215,7 @@
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -1168,7 +1225,7 @@
       <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -1178,7 +1235,7 @@
       <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -1196,7 +1253,7 @@
       <c r="C32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1208,7 +1265,7 @@
       <c r="C33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
@@ -1218,7 +1275,7 @@
       <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -1228,7 +1285,7 @@
       <c r="C35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
@@ -1238,7 +1295,7 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="23"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
@@ -1248,7 +1305,7 @@
       <c r="C37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -1266,7 +1323,7 @@
       <c r="C39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1278,7 +1335,7 @@
       <c r="C40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -1290,7 +1347,7 @@
       <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
@@ -1300,7 +1357,7 @@
       <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
@@ -1312,7 +1369,7 @@
       <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -1330,7 +1387,7 @@
       <c r="C45" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1344,7 +1401,7 @@
       <c r="C46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
@@ -1354,7 +1411,7 @@
       <c r="C47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -1366,7 +1423,7 @@
       <c r="C48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -1384,7 +1441,7 @@
       <c r="C50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1396,7 +1453,7 @@
       <c r="C51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
@@ -1408,7 +1465,7 @@
       <c r="C52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
@@ -1418,7 +1475,7 @@
       <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
@@ -1436,7 +1493,7 @@
       <c r="C55" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1448,7 +1505,7 @@
       <c r="C56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
@@ -1458,7 +1515,7 @@
       <c r="C57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
@@ -1476,7 +1533,7 @@
       <c r="C59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1488,7 +1545,7 @@
       <c r="C60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
@@ -1500,7 +1557,7 @@
       <c r="C61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
@@ -1512,7 +1569,7 @@
       <c r="C62" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
@@ -1522,7 +1579,7 @@
       <c r="C63" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
@@ -1540,7 +1597,7 @@
       <c r="C65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1552,7 +1609,7 @@
       <c r="C66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -1562,7 +1619,7 @@
       <c r="C67" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
@@ -1572,7 +1629,7 @@
       <c r="C68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
@@ -1582,7 +1639,7 @@
       <c r="C69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
@@ -1592,15 +1649,15 @@
       <c r="C70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="21"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
@@ -1618,7 +1675,7 @@
       <c r="C73" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1630,7 +1687,7 @@
       <c r="C74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="21"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
@@ -1648,51 +1705,51 @@
       <c r="C76" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>85</v>
+      <c r="D76" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="23"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
+      <c r="A78" s="4">
         <v>44632</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="23"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+      <c r="A79" s="4">
         <v>44638</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="23"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
+      <c r="A80" s="4">
         <v>44651</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="23"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
@@ -1710,61 +1767,232 @@
       <c r="C82" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>44660</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="28"/>
+    </row>
+    <row r="84" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
-        <v>44660</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="28"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="28"/>
+    </row>
+    <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>44695</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="23"/>
-    </row>
-    <row r="85" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="23"/>
-    </row>
-    <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="23"/>
+      <c r="C88" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="28"/>
+    </row>
+    <row r="92" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>44730</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="28"/>
+    </row>
+    <row r="93" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>44732</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="28"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>44734</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D59:D63"/>
     <mergeCell ref="D65:D71"/>
     <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D76:D80"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D8:D14"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D39:D43"/>
     <mergeCell ref="D32:D37"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D59:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5181707C-FA29-4258-85FC-89DB27A42CEF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>44690</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>44691</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>